--- a/csv/policies/reference/Ref_nuclear decommission/formula_Ref_nuclear decommission_QC.xlsx
+++ b/csv/policies/reference/Ref_nuclear decommission/formula_Ref_nuclear decommission_QC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_nuclear decommission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B92CCF86-D230-4FDF-A324-7D43B211F5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA5F260-3CE6-464B-B4C0-BE5B16DAF0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3660" windowWidth="17280" windowHeight="8880" xr2:uid="{52649C9C-2F9F-47C0-9EE1-E9F08FA3A0DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09423F02-1A1B-4A10-BF99-71C74D1B6662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -101,7 +101,13 @@
     <t>%</t>
   </si>
   <si>
+    <t>Gentilly-2 shutdown in 2012</t>
+  </si>
+  <si>
     <t>Market share new_max</t>
+  </si>
+  <si>
+    <t>2030 and later blank to allow refurbishment of Gentilly-2</t>
   </si>
 </sst>
 </file>
@@ -472,21 +478,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EBD066-31D6-47DD-BAB5-0A511D99C604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E846934-2D98-4999-938F-85018F15584B}">
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -560,7 +566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -618,8 +624,11 @@
       <c r="W3">
         <v>0</v>
       </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -639,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
@@ -661,6 +670,9 @@
       </c>
       <c r="R4">
         <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
